--- a/Datasets/Frommann/Data/Frommann_4_C_Ospanova.xlsx
+++ b/Datasets/Frommann/Data/Frommann_4_C_Ospanova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianaospanova/Desktop/Arbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746FC211-DBAA-F949-8E4C-23A6872F1970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -556,30 +556,30 @@
   <dimension ref="A1:P278"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="65.33203125" customWidth="1"/>
+    <col min="4" max="4" width="65.375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -658,7 +658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -708,7 +708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -756,7 +756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -806,7 +806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -854,7 +854,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -919,7 +919,7 @@
       </c>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -952,7 +952,7 @@
       </c>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1310,30 +1310,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="4"/>
     </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P82" s="5"/>
     </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P83" s="5"/>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P85" s="5"/>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="278" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P278" s="1"/>
     </row>
   </sheetData>
@@ -1350,9 +1350,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,18 +1369,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
